--- a/HW/BTPrinter bom.xlsx
+++ b/HW/BTPrinter bom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8445"/>
+    <workbookView windowWidth="23910" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>STP0030X0001</t>
   </si>
   <si>
-    <t>2.0Pitch 双列直插打印头FPC座子30PIN_DOUBLE_SMD</t>
+    <t>1.0*30P双面接立贴</t>
   </si>
   <si>
     <t>pcs</t>
@@ -426,31 +426,31 @@
     <t>C3 C5 C6 C7 C15 C16 C17 C18 C23 C29 C30 C33 C36 C42</t>
   </si>
   <si>
-    <t>2PIN电源插座</t>
+    <t xml:space="preserve"> XH-2AW（2.54弯针2P）</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>USB TYPEB 母座</t>
+    <t>USB B母90度</t>
   </si>
   <si>
     <t>J3</t>
   </si>
   <si>
-    <t>RJ12水晶头母座</t>
+    <t xml:space="preserve"> RJ12水晶头母座：55A 6P6C无边 13高</t>
   </si>
   <si>
     <t>J5</t>
   </si>
   <si>
-    <t>轻触开关 12_12MMKEY</t>
+    <t xml:space="preserve"> 轻触开关12*12*12</t>
   </si>
   <si>
     <t>S2</t>
   </si>
   <si>
-    <t>电源开关 POWER_KEY</t>
+    <t>船形开关KCD11</t>
   </si>
   <si>
     <t>S1</t>
@@ -497,10 +497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -536,39 +536,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,14 +553,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,9 +574,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,56 +659,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,8 +672,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,7 +689,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,13 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,37 +845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,121 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,6 +894,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,17 +943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,7 +956,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,16 +991,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,10 +1003,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,137 +1015,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1173,22 +1167,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1508,7 +1490,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1608,19 +1590,19 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2015,7 +1997,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:5">
+    <row r="30" ht="14.25" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>90</v>
       </c>
@@ -2271,167 +2253,167 @@
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:5">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8">
-        <v>1</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:5">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8">
-        <v>1</v>
-      </c>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="8"/>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:5">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8">
-        <v>1</v>
-      </c>
-      <c r="C47" s="11" t="s">
+    <row r="47" ht="28.5" spans="1:5">
+      <c r="A47" s="8"/>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="8">
-        <v>1</v>
-      </c>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="8"/>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:5">
-      <c r="A49" s="12"/>
-      <c r="B49" s="8">
-        <v>1</v>
-      </c>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:5">
-      <c r="A50" s="12"/>
-      <c r="B50" s="8">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="8"/>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="51" ht="28.5" spans="1:5">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8">
-        <v>1</v>
-      </c>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:5">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11" t="s">
+      <c r="A52" s="6"/>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:5">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:5">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8">
-        <v>1</v>
-      </c>
-      <c r="C54" s="11" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:5">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>157</v>
       </c>
     </row>
